--- a/Max +D Issue 1 BOM.xlsx
+++ b/Max +D Issue 1 BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Retro Computer\zx spectrum\_clone\max +D\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C96F0E-9E63-4AEE-B7B9-FD7683E2A455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DA75E-D22D-439F-9397-A5A4D2B97BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="990" windowWidth="18750" windowHeight="19890" xr2:uid="{AD7F4EE9-5949-443F-8F9E-D7A06FB9AF40}"/>
+    <workbookView xWindow="1420" yWindow="480" windowWidth="29900" windowHeight="19890" xr2:uid="{AD7F4EE9-5949-443F-8F9E-D7A06FB9AF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Max 128 Issue 5" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>74HC366</t>
   </si>
   <si>
-    <t>Hex Bus Driver with 3-State Outputs</t>
-  </si>
-  <si>
     <t>U12</t>
   </si>
   <si>
@@ -865,6 +862,10 @@
   <si>
     <t xml:space="preserve">	
 732-5006-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+296-33070-5-ND</t>
   </si>
 </sst>
 </file>
@@ -985,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1024,8 +1025,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1359,7 +1358,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.4">
@@ -1367,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -1378,13 +1377,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -1392,13 +1391,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -1412,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -1426,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
@@ -1434,13 +1433,13 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="6">
         <v>19</v>
@@ -1454,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1462,13 +1461,13 @@
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -1476,13 +1475,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1490,13 +1489,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -1504,13 +1503,13 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="6">
         <v>17</v>
@@ -1521,10 +1520,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
         <v>252</v>
-      </c>
-      <c r="C13" t="s">
-        <v>253</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -1538,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1552,7 +1551,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1566,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1577,10 +1576,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -1594,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1602,13 +1601,13 @@
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -1616,13 +1615,13 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -1630,13 +1629,13 @@
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1644,13 +1643,13 @@
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="6">
         <v>27</v>
@@ -1658,13 +1657,13 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="6">
         <v>15</v>
@@ -1678,7 +1677,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="6">
         <v>4</v>
@@ -1692,7 +1691,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1706,7 +1705,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
@@ -1720,7 +1719,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" s="6">
         <v>6</v>
@@ -1734,7 +1733,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1742,13 +1741,13 @@
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -1762,7 +1761,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -1776,7 +1775,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1790,7 +1789,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -1804,7 +1803,7 @@
         <v>56</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1818,7 +1817,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -1832,7 +1831,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -1854,13 +1853,13 @@
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>178</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
@@ -1868,13 +1867,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -1885,10 +1884,10 @@
         <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>182</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -1902,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -1910,13 +1909,13 @@
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -1924,13 +1923,13 @@
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -1938,13 +1937,13 @@
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -1952,13 +1951,13 @@
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -1972,13 +1971,13 @@
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>1</v>
@@ -1986,13 +1985,13 @@
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
@@ -2000,16 +1999,16 @@
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -2017,10 +2016,10 @@
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -2028,13 +2027,13 @@
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -2042,13 +2041,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -2056,13 +2055,13 @@
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6">
         <v>8</v>
@@ -2070,13 +2069,13 @@
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="6">
         <v>4</v>
@@ -2090,7 +2089,7 @@
         <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
@@ -2098,13 +2097,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
@@ -2118,7 +2117,7 @@
         <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D56" s="6">
         <v>1</v>
@@ -2126,13 +2125,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
@@ -2146,13 +2145,13 @@
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>1</v>
@@ -2160,13 +2159,13 @@
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="6">
         <v>7</v>
@@ -2180,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -2188,13 +2187,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
@@ -2202,13 +2201,13 @@
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="6">
         <v>1</v>
@@ -2219,10 +2218,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -2230,13 +2229,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
@@ -2250,13 +2249,13 @@
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>1</v>
@@ -2264,13 +2263,13 @@
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="6">
         <v>7</v>
@@ -2278,13 +2277,13 @@
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>263</v>
+        <v>222</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
@@ -2292,13 +2291,13 @@
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -2306,13 +2305,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>265</v>
+      <c r="C71" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -2320,13 +2319,13 @@
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -2334,13 +2333,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -2348,13 +2347,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>268</v>
+        <v>227</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D74" s="6">
         <v>3</v>
@@ -2365,10 +2364,10 @@
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>269</v>
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -2376,13 +2375,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>270</v>
+      <c r="C76" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -2390,13 +2389,13 @@
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
@@ -2404,13 +2403,13 @@
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="6">
         <v>2</v>
@@ -2418,13 +2417,13 @@
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D79" s="6">
         <v>4</v>
@@ -2432,10 +2431,10 @@
     </row>
     <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="6">
@@ -2444,13 +2443,13 @@
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>262</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -2458,13 +2457,13 @@
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -2472,13 +2471,13 @@
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -2486,13 +2485,13 @@
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -2500,13 +2499,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>254</v>
+        <v>241</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -2514,13 +2513,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -2528,13 +2527,13 @@
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>257</v>
+        <v>243</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>256</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -2542,13 +2541,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C88" s="20" t="s">
         <v>258</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -2556,13 +2555,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D89" s="6">
         <v>2</v>
@@ -2576,13 +2575,13 @@
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>1</v>
@@ -2590,13 +2589,13 @@
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="6">
         <v>4</v>
@@ -2604,13 +2603,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D93" s="6">
         <v>4</v>
@@ -2618,13 +2617,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D94" s="6">
         <v>2</v>
@@ -2632,13 +2631,13 @@
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -2646,10 +2645,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -2660,13 +2659,13 @@
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D97" s="6">
         <v>4</v>
@@ -2674,13 +2673,13 @@
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D98" s="6">
         <v>4</v>
@@ -2694,7 +2693,7 @@
         <v>58</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D99" s="6">
         <v>4</v>
@@ -2702,13 +2701,13 @@
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D100" s="6">
         <v>2</v>
@@ -2716,13 +2715,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
@@ -2736,7 +2735,7 @@
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
@@ -2744,7 +2743,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>76</v>
@@ -2758,13 +2757,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
@@ -2772,13 +2771,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
@@ -2786,13 +2785,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
@@ -2800,13 +2799,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
@@ -2820,13 +2819,13 @@
     </row>
     <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>1</v>
@@ -2834,13 +2833,13 @@
     </row>
     <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D110" s="11">
         <v>4</v>
@@ -2848,13 +2847,13 @@
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D111" s="11">
         <v>4</v>
@@ -2868,7 +2867,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D112" s="11">
         <v>2</v>
@@ -2882,7 +2881,7 @@
         <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D113" s="6">
         <v>2</v>
@@ -2890,13 +2889,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -2904,10 +2903,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>34</v>
@@ -2918,13 +2917,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D116" s="6">
         <v>2</v>
@@ -2932,13 +2931,13 @@
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -2946,13 +2945,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -2960,13 +2959,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -2974,13 +2973,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -2988,13 +2987,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B121" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
